--- a/data/trans_dic/P44A$otras-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,17</t>
+          <t>0,0; 56,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,39; 77,3</t>
+          <t>35,42; 77,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 59,09</t>
+          <t>7,38; 63,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,81; 86,59</t>
+          <t>31,63; 86,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 51,81</t>
+          <t>5,5; 46,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,51; 75,08</t>
+          <t>40,6; 73,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -732,7 +733,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,04; 52,76</t>
+          <t>8,94; 52,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,04</t>
+          <t>0,0; 66,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,39 +811,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,79; 65,49</t>
+          <t>22,53; 69,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,15</t>
+          <t>0,0; 78,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 9,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,75; 50,04</t>
+          <t>20,69; 51,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 55,42</t>
+          <t>7,43; 56,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,27 +906,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,5</t>
+          <t>0,0; 50,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,04</t>
+          <t>0,0; 30,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,78</t>
+          <t>1,03; 8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 67,9</t>
+          <t>8,82; 70,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 54,71</t>
+          <t>7,02; 57,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,17 +936,17 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 53,5</t>
+          <t>9,53; 49,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 35,68</t>
+          <t>7,77; 34,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,49</t>
+          <t>0,52; 4,67</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,14</t>
+          <t>0,0; 45,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 30,24</t>
+          <t>3,86; 33,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,16; 55,49</t>
+          <t>7,41; 60,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,97</t>
+          <t>0,0; 38,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 42,85</t>
+          <t>4,42; 39,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 24,64</t>
+          <t>5,76; 25,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1135,12 +1136,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,31</t>
+          <t>0,0; 20,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,39</t>
+          <t>0,0; 81,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,0</t>
+          <t>0,0; 13,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,41</t>
+          <t>0,0; 44,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,14 +1166,14 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,99</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,15</t>
+          <t>0,0; 45,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,93; 76,77</t>
+          <t>9,86; 70,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1255,34 +1256,34 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,32; 75,22</t>
+          <t>11,13; 73,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,05</t>
+          <t>0,0; 6,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 52,49</t>
+          <t>6,27; 46,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,9; 63,14</t>
+          <t>15,65; 62,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,54</t>
+          <t>0,0; 33,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 22,0</t>
+          <t>2,82; 23,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,65</t>
+          <t>0,0; 4,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,15; 62,46</t>
+          <t>14,27; 62,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 29,65</t>
+          <t>3,17; 28,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,12; 42,66</t>
+          <t>9,27; 39,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,84; 20,09</t>
+          <t>4,44; 19,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
     </row>
@@ -1455,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 43,48</t>
+          <t>8,18; 44,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,8; 47,65</t>
+          <t>11,09; 47,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,03; 64,08</t>
+          <t>14,13; 64,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,34; 65,7</t>
+          <t>15,26; 72,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,68; 45,23</t>
+          <t>15,13; 43,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,57; 48,55</t>
+          <t>18,12; 50,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,48; 25,45</t>
+          <t>9,37; 24,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,79; 30,59</t>
+          <t>16,66; 30,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,08</t>
+          <t>0,07; 1,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,5; 44,25</t>
+          <t>25,06; 44,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,16; 35,65</t>
+          <t>17,96; 34,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,17</t>
+          <t>0,16; 1,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>19,54; 32,02</t>
+          <t>18,96; 31,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,02; 29,64</t>
+          <t>19,62; 30,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,97</t>
+          <t>0,16; 0,89</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado otra prueba para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13162</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9911</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23073</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3911</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8279; 18006</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1480</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>817; 7075</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4993; 13650</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 897</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>991; 8350</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15899; 28941</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1231</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6354</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2773</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8935</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15289</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2155; 12662</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6231</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1929</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4599; 14210</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4456</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3925</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9210; 22853</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1116; 8474</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3808</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2089</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5134</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5384</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6157</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7473</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4651</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6389</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>583; 4929</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1174; 9380</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1402; 11478</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1028</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2147; 11163</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3174; 14145</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>583; 5251</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1084</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3585</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5757</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4949</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1004; 8622</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1383</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1013; 8308</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7764</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 920</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1087; 9806</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2676; 11909</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1099</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2133</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1664</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1320</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2619</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5363</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1446</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1894</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5663</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1618</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2808</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3752</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3072</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6823</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4184</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1024; 7347</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1147</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5190</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>957; 6283</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>974; 7282</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2971; 11775</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1522</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1069</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4119</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7159</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3208</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>8227</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5319</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1137; 9304</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5246</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2936; 12776</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>895; 7916</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2820</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3362; 14472</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3044; 13316</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 5928</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>6374</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6905</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5381</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>11746</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>12286</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2200; 11857</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2928; 12437</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 3756</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2125; 9731</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2055; 9754</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1062</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6348; 18047</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>7226; 20188</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2277</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>36425</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>37283</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>30257</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>55176</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>66682</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>10251; 27241</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>26601; 47997</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>509; 8172</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>26798; 47477</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>20859; 40485</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>747; 5927</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>41016; 69024</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>54103; 83751</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2053; 11182</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>